--- a/public/templates/text_analysis.xlsx
+++ b/public/templates/text_analysis.xlsx
@@ -27,9 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>This movie was absolutely fantastic! I loved every minute of it.</t>
   </si>
 </sst>
 </file>
@@ -645,8 +648,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,17 +1188,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
